--- a/Data/EXO/DESeq/Pc3EXOCavin2.xlsx
+++ b/Data/EXO/DESeq/Pc3EXOCavin2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Pc3EXOCavin2" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1576,6 +1576,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1621,11 +1630,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1950,7 +1960,7 @@
   <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,26 +2885,26 @@
         <v>8.3072239089421199E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>273.686672047721</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>1.1620689521474901</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>0.45566715259777901</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>2.5502583311579099</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>1.07643124412571E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>9.6609704160282306E-2</v>
       </c>
     </row>

--- a/Data/EXO/DESeq/Pc3EXOCavin2.xlsx
+++ b/Data/EXO/DESeq/Pc3EXOCavin2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pc3EXOCavin2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="375">
   <si>
     <t>baseMean</t>
   </si>
@@ -1132,6 +1133,18 @@
   </si>
   <si>
     <t>hsa-miR-499a-5p</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>microRNA</t>
+  </si>
+  <si>
+    <t>hsa-miR-X</t>
   </si>
 </sst>
 </file>
@@ -1959,13 +1972,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10366,4 +10381,109 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2">
+        <v>58.297218010000002</v>
+      </c>
+      <c r="D2">
+        <v>2.2293588670000002</v>
+      </c>
+      <c r="E2">
+        <v>0.47144090599999999</v>
+      </c>
+      <c r="F2">
+        <v>4.7288193219999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.26E-6</v>
+      </c>
+      <c r="H2">
+        <v>2.75512E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3">
+        <v>22.944087532326101</v>
+      </c>
+      <c r="D3">
+        <v>5.3118948755371003</v>
+      </c>
+      <c r="E3">
+        <v>0.56207081494163103</v>
+      </c>
+      <c r="F3">
+        <f>D3/E3</f>
+        <v>9.4505794186960603</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9025657016261498E-5</v>
+      </c>
+      <c r="H3">
+        <v>2.0014586955482698E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>D3/D2</f>
+        <v>2.3827006742459558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>